--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
